--- a/input/GEIA_VOC.xlsx
+++ b/input/GEIA_VOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaz/Documents/STEP_3/copert5App/copert_5.nosync/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7676266-EEAD-C14B-B2B5-36CD620045AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B23E98-C178-EE46-8F1D-CB74F36CE7A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{65A18140-D0C9-D54A-B789-9DD91C8E0FEF}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$71</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="38">
   <si>
     <t>Modo</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Ethyne (acetylene)</t>
   </si>
   <si>
-    <t>Other alk(adi)enes/alkynes (olefines)</t>
-  </si>
-  <si>
     <t>Benzene (benzol)</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>Alkanones (ketones)</t>
+  </si>
+  <si>
+    <t>olefines</t>
+  </si>
+  <si>
+    <t>TAX</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AD267A-B9B8-2441-AC63-024712F0296C}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,31 +647,31 @@
         <v>27</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -5011,8 +5014,441 @@
         <v>0.66</v>
       </c>
     </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1.65</v>
+      </c>
+      <c r="E72">
+        <v>0.47</v>
+      </c>
+      <c r="F72">
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="G72">
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="H72">
+        <v>4.34</v>
+      </c>
+      <c r="I72">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="J72">
+        <v>4.87</v>
+      </c>
+      <c r="K72">
+        <v>5.5</v>
+      </c>
+      <c r="L72">
+        <v>9.41</v>
+      </c>
+      <c r="M72">
+        <v>6.83</v>
+      </c>
+      <c r="N72">
+        <v>12.84</v>
+      </c>
+      <c r="O72">
+        <v>11.18</v>
+      </c>
+      <c r="P72">
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="Q72">
+        <v>14.48</v>
+      </c>
+      <c r="R72">
+        <v>2.08</v>
+      </c>
+      <c r="S72">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="T72">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3.19</v>
+      </c>
+      <c r="E73">
+        <v>0.65</v>
+      </c>
+      <c r="F73">
+        <v>6.83</v>
+      </c>
+      <c r="G73">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H73">
+        <v>10.17</v>
+      </c>
+      <c r="I73">
+        <v>7.3</v>
+      </c>
+      <c r="J73">
+        <v>3.82</v>
+      </c>
+      <c r="K73">
+        <v>2.81</v>
+      </c>
+      <c r="L73">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M73">
+        <v>5.61</v>
+      </c>
+      <c r="N73">
+        <v>10.98</v>
+      </c>
+      <c r="O73">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P73">
+        <v>6.49</v>
+      </c>
+      <c r="Q73">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R73">
+        <v>1.7</v>
+      </c>
+      <c r="S73">
+        <v>1.62</v>
+      </c>
+      <c r="T73">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>3.19</v>
+      </c>
+      <c r="E74">
+        <v>0.65</v>
+      </c>
+      <c r="F74">
+        <v>6.83</v>
+      </c>
+      <c r="G74">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H74">
+        <v>10.17</v>
+      </c>
+      <c r="I74">
+        <v>7.3</v>
+      </c>
+      <c r="J74">
+        <v>3.82</v>
+      </c>
+      <c r="K74">
+        <v>2.81</v>
+      </c>
+      <c r="L74">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M74">
+        <v>5.61</v>
+      </c>
+      <c r="N74">
+        <v>10.98</v>
+      </c>
+      <c r="O74">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P74">
+        <v>6.49</v>
+      </c>
+      <c r="Q74">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R74">
+        <v>1.7</v>
+      </c>
+      <c r="S74">
+        <v>1.62</v>
+      </c>
+      <c r="T74">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>3.19</v>
+      </c>
+      <c r="E75">
+        <v>0.65</v>
+      </c>
+      <c r="F75">
+        <v>6.83</v>
+      </c>
+      <c r="G75">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H75">
+        <v>10.17</v>
+      </c>
+      <c r="I75">
+        <v>7.3</v>
+      </c>
+      <c r="J75">
+        <v>3.82</v>
+      </c>
+      <c r="K75">
+        <v>2.81</v>
+      </c>
+      <c r="L75">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M75">
+        <v>5.61</v>
+      </c>
+      <c r="N75">
+        <v>10.98</v>
+      </c>
+      <c r="O75">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P75">
+        <v>6.49</v>
+      </c>
+      <c r="Q75">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R75">
+        <v>1.7</v>
+      </c>
+      <c r="S75">
+        <v>1.62</v>
+      </c>
+      <c r="T75">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>3.19</v>
+      </c>
+      <c r="E76">
+        <v>0.65</v>
+      </c>
+      <c r="F76">
+        <v>6.83</v>
+      </c>
+      <c r="G76">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H76">
+        <v>10.17</v>
+      </c>
+      <c r="I76">
+        <v>7.3</v>
+      </c>
+      <c r="J76">
+        <v>3.82</v>
+      </c>
+      <c r="K76">
+        <v>2.81</v>
+      </c>
+      <c r="L76">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M76">
+        <v>5.61</v>
+      </c>
+      <c r="N76">
+        <v>10.98</v>
+      </c>
+      <c r="O76">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P76">
+        <v>6.49</v>
+      </c>
+      <c r="Q76">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R76">
+        <v>1.7</v>
+      </c>
+      <c r="S76">
+        <v>1.62</v>
+      </c>
+      <c r="T76">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>3.19</v>
+      </c>
+      <c r="E77">
+        <v>0.65</v>
+      </c>
+      <c r="F77">
+        <v>6.83</v>
+      </c>
+      <c r="G77">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H77">
+        <v>10.17</v>
+      </c>
+      <c r="I77">
+        <v>7.3</v>
+      </c>
+      <c r="J77">
+        <v>3.82</v>
+      </c>
+      <c r="K77">
+        <v>2.81</v>
+      </c>
+      <c r="L77">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M77">
+        <v>5.61</v>
+      </c>
+      <c r="N77">
+        <v>10.98</v>
+      </c>
+      <c r="O77">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P77">
+        <v>6.49</v>
+      </c>
+      <c r="Q77">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R77">
+        <v>1.7</v>
+      </c>
+      <c r="S77">
+        <v>1.62</v>
+      </c>
+      <c r="T77">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>3.19</v>
+      </c>
+      <c r="E78">
+        <v>0.65</v>
+      </c>
+      <c r="F78">
+        <v>6.83</v>
+      </c>
+      <c r="G78">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H78">
+        <v>10.17</v>
+      </c>
+      <c r="I78">
+        <v>7.3</v>
+      </c>
+      <c r="J78">
+        <v>3.82</v>
+      </c>
+      <c r="K78">
+        <v>2.81</v>
+      </c>
+      <c r="L78">
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="M78">
+        <v>5.61</v>
+      </c>
+      <c r="N78">
+        <v>10.98</v>
+      </c>
+      <c r="O78">
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="P78">
+        <v>6.49</v>
+      </c>
+      <c r="Q78">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="R78">
+        <v>1.7</v>
+      </c>
+      <c r="S78">
+        <v>1.62</v>
+      </c>
+      <c r="T78">
+        <v>0.66</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T78" xr:uid="{E551C98D-B831-4E44-95C5-451CA2E90E7A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>